--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Year 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\EEE\Year 3\ELEC60024 Power Electronics\coursework\ATX_PowerSupply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F88C01-3ECD-4414-B463-8C8118048A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFECD23-788B-423B-9A6E-7ADB169AB59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21E4F67D-A6F0-4C9A-A626-BF2F49C5F8AE}"/>
+    <workbookView xWindow="-33017" yWindow="-2031" windowWidth="33120" windowHeight="18000" xr2:uid="{21E4F67D-A6F0-4C9A-A626-BF2F49C5F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Amount</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Inductor core and wire</t>
+  </si>
+  <si>
+    <t>Price not supplied by manufacturer (Magnetics)</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82E99F3-D304-4BCF-8F10-D5609E93B42A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,6 +969,14 @@
         <v>0.254</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>49</v>
